--- a/Storage/minio/storage/airflow-files/interested_tickers.xlsx
+++ b/Storage/minio/storage/airflow-files/interested_tickers.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google drive\Business\Repos\Quant-Trading-Infrastructure\Storage\airflow\dags\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wsl\Microservices-Based-Algorithmic-Trading-System\Storage\minio\storage\airflow-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A116D94E-F504-43FE-A0EA-88564AE73BAA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{694D56A7-744C-4A86-8AB6-400D4A3084F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-55680" yWindow="2100" windowWidth="21600" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="380" yWindow="380" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="daily" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
   <si>
     <t>Tickers</t>
   </si>
@@ -37,7 +37,16 @@
     <t>GBP_USD</t>
   </si>
   <si>
-    <t>JPY_USD</t>
+    <t>AUD_USD</t>
+  </si>
+  <si>
+    <t>EUR_JPY</t>
+  </si>
+  <si>
+    <t>GBP_JPY</t>
+  </si>
+  <si>
+    <t>NZD_USD</t>
   </si>
   <si>
     <t>USD_JPY</t>
@@ -358,32 +367,52 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -393,27 +422,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{833803CE-59C3-4CA2-B52B-89F040AAE3D2}">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
